--- a/sczl.xlsx
+++ b/sczl.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunping/Projects/poems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D3275EC0-6A3E-9F49-98D2-DB8240AEEFC3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C8875DC4-EC16-8046-8730-8FDE704CB35A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="1980" windowWidth="23440" windowHeight="15940" xr2:uid="{ADF9E377-FF50-1749-A8AB-88A8DA1901B2}"/>
+    <workbookView xWindow="5760" yWindow="1580" windowWidth="23440" windowHeight="15940" activeTab="1" xr2:uid="{ADF9E377-FF50-1749-A8AB-88A8DA1901B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="sczl201812" sheetId="1" r:id="rId1"/>
+    <sheet name="CheckinList" sheetId="2" r:id="rId1"/>
+    <sheet name="目录" sheetId="5" r:id="rId2"/>
+    <sheet name="诗词之旅201812" sheetId="1" r:id="rId3"/>
+    <sheet name="醉美诗词之旅20181229" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="132">
   <si>
     <t>书湖阴先生壁</t>
   </si>
@@ -175,10 +178,326 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://mp.weixin.qq.com/s/22T1ytPo3a7jWCoRti35eA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗词之旅201812</t>
+  </si>
+  <si>
+    <t>sczl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://mp.weixin.qq.com/s/EeW91Zbv3RkkmKczR2Qf2w</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/22T1ytPo3a7jWCoRti35eA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181231</t>
+  </si>
+  <si>
+    <t>20181231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181204</t>
+  </si>
+  <si>
+    <t>20181205</t>
+  </si>
+  <si>
+    <t>20181206</t>
+  </si>
+  <si>
+    <t>20181207</t>
+  </si>
+  <si>
+    <t>20181210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181211</t>
+  </si>
+  <si>
+    <t>20181212</t>
+  </si>
+  <si>
+    <t>20181213</t>
+  </si>
+  <si>
+    <t>20181214</t>
+  </si>
+  <si>
+    <t>20181217</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181218</t>
+  </si>
+  <si>
+    <t>20181219</t>
+  </si>
+  <si>
+    <t>20181220</t>
+  </si>
+  <si>
+    <t>20181221</t>
+  </si>
+  <si>
+    <t>20181224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181225</t>
+  </si>
+  <si>
+    <t>20181226</t>
+  </si>
+  <si>
+    <t>20181227</t>
+  </si>
+  <si>
+    <t>20181228</t>
+  </si>
+  <si>
+    <t>zmsczl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉美诗词之旅20181229</t>
+    <rPh sb="0" eb="2">
+      <t>ug</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20181230</t>
+  </si>
+  <si>
+    <t>20190101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190102</t>
+  </si>
+  <si>
+    <t>20190103</t>
+  </si>
+  <si>
+    <t>20190104</t>
+  </si>
+  <si>
+    <t>20190105</t>
+  </si>
+  <si>
+    <t>20190106</t>
+  </si>
+  <si>
+    <t>20190107</t>
+  </si>
+  <si>
+    <t>20190108</t>
+  </si>
+  <si>
+    <t>20190109</t>
+  </si>
+  <si>
+    <t>20190110</t>
+  </si>
+  <si>
+    <t>20190111</t>
+  </si>
+  <si>
+    <t>20190112</t>
+  </si>
+  <si>
+    <t>20190113</t>
+  </si>
+  <si>
+    <t>20190114</t>
+  </si>
+  <si>
+    <t>20190115</t>
+  </si>
+  <si>
+    <t>20190116</t>
+  </si>
+  <si>
+    <t>20190117</t>
+  </si>
+  <si>
+    <t>20190118</t>
+  </si>
+  <si>
+    <t>望岳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月下独酌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静夜思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜宿山寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望庐山瀑布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望天门山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峨眉山月歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早发白帝城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独坐敬亭山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋浦歌十七首</t>
+    <rPh sb="0" eb="4">
+      <t>fg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠汪伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古朗月行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别董大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从军行其四 王昌龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉州词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回乡偶书其一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登幽州台歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风 李峤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咏鹅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从军行 杨炯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送杜少府之任蜀州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003 王勃《送杜少府之任蜀州》赏析.mp4</t>
+  </si>
+  <si>
+    <t>004 杨炯《从军行》赏析.mp4</t>
+  </si>
+  <si>
+    <t>005 骆宾王《咏鹅》赏析.mp4</t>
+  </si>
+  <si>
+    <t>006 李峤《风》赏析.mp4</t>
+  </si>
+  <si>
+    <t>008 陈子昂《登幽州台歌》赏析.mp4</t>
+  </si>
+  <si>
+    <t>011 贺知章《回乡偶书（其一）》赏析.mp4</t>
+  </si>
+  <si>
+    <t>025 王之涣《凉州词》赏析.mp4</t>
+  </si>
+  <si>
+    <t>027 王昌龄《从军行（其四）》赏析.mp4</t>
+  </si>
+  <si>
+    <t>032 高适《别董大》赏析.mp4</t>
+  </si>
+  <si>
+    <t>038 李白《古朗月行》赏析.mp4</t>
+  </si>
+  <si>
+    <t>039 李白《赠汪伦》赏析.mp4</t>
+  </si>
+  <si>
+    <t>040 李白《秋浦歌》赏析.mp4</t>
+  </si>
+  <si>
+    <t>041 李白《独坐敬亭山》赏析.mp4</t>
+  </si>
+  <si>
+    <t>042 李白《早发白帝城》赏析.mp4</t>
+  </si>
+  <si>
+    <t>043 李白《峨眉山月歌》.mp4</t>
+  </si>
+  <si>
+    <t>044 李白《望天门山》赏析.mp4</t>
+  </si>
+  <si>
+    <t>045 李白《望庐山瀑布》赏析.mp4</t>
+  </si>
+  <si>
+    <t>046 李白《夜宿山寺》赏析.mp4</t>
+  </si>
+  <si>
+    <t>048 李白《静夜思》赏析.mp4</t>
+  </si>
+  <si>
+    <t>050 李白《月下独酌》赏析.mp4</t>
+  </si>
+  <si>
+    <t>054 杜甫《望岳》赏析.mp4</t>
+  </si>
+  <si>
+    <t>诗词之旅</t>
+    <rPh sb="0" eb="2">
+      <t>yng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉美诗词之旅</t>
+    <rPh sb="0" eb="2">
+      <t>ug</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +505,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,6 +547,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,7 +590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,6 +604,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,25 +935,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74844C65-662D-8C41-BFEB-29A45178739B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="3" width="36.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAFA572-1909-224A-8663-60B1E8E856F7}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="3" width="36.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757DD69B-D499-AC4D-BE3C-37A20EC24662}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="71.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4">
-        <v>20181203</v>
+      <c r="A1" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -612,8 +1041,8 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4">
-        <v>20181204</v>
+      <c r="A2" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -623,8 +1052,8 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4">
-        <v>20181205</v>
+      <c r="A3" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -634,8 +1063,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4">
-        <v>20181206</v>
+      <c r="A4" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -645,8 +1074,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4">
-        <v>20181207</v>
+      <c r="A5" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -656,8 +1085,8 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4">
-        <v>20181210</v>
+      <c r="A6" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -667,8 +1096,8 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4">
-        <v>20181211</v>
+      <c r="A7" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -678,8 +1107,8 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4">
-        <v>20181212</v>
+      <c r="A8" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -690,8 +1119,8 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4">
-        <v>20181213</v>
+      <c r="A9" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
@@ -701,8 +1130,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4">
-        <v>20181214</v>
+      <c r="A10" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>37</v>
@@ -712,8 +1141,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4">
-        <v>20181217</v>
+      <c r="A11" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -723,8 +1152,8 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4">
-        <v>20181218</v>
+      <c r="A12" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -734,8 +1163,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4">
-        <v>20181219</v>
+      <c r="A13" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -745,8 +1174,8 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4">
-        <v>20181220</v>
+      <c r="A14" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -756,8 +1185,8 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4">
-        <v>20181221</v>
+      <c r="A15" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
@@ -767,8 +1196,8 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4">
-        <v>20181224</v>
+      <c r="A16" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
@@ -778,19 +1207,19 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4">
-        <v>20181225</v>
+      <c r="A17" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4">
-        <v>20181226</v>
+      <c r="A18" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>15</v>
@@ -800,8 +1229,8 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4">
-        <v>20181227</v>
+      <c r="A19" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>16</v>
@@ -811,8 +1240,8 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4">
-        <v>20181228</v>
+      <c r="A20" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
@@ -822,14 +1251,14 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4">
-        <v>20181231</v>
+      <c r="A21" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
+      <c r="C21" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -855,8 +1284,260 @@
     <hyperlink ref="C1" r:id="rId18" xr:uid="{7798A190-A74E-AA47-8A4E-60B7F87BEEEB}"/>
     <hyperlink ref="C8" r:id="rId19" xr:uid="{C55419D2-1145-7A43-BACD-BD217D32CB0E}"/>
     <hyperlink ref="C17" r:id="rId20" display="https://mp.weixin.qq.com/s/WKygk9Lp8_YrulO4wk5smg" xr:uid="{68497BD6-C8ED-BB40-A71F-4A6D13FB0756}"/>
+    <hyperlink ref="C21" r:id="rId21" xr:uid="{140A5C3F-EF72-4D4E-BE93-F6BA664A9466}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED91080-5BBE-AE4D-8784-75A4B86B5EFA}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>